--- a/natmiOut/OldD7/LR-pairs_lrc2p/Efna5-Ephb6.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Efna5-Ephb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>Ephb6</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -528,49 +534,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.14499210593061</v>
+        <v>0.09353433333333333</v>
       </c>
       <c r="H2">
-        <v>1.14499210593061</v>
+        <v>0.280603</v>
       </c>
       <c r="I2">
-        <v>0.7328162024371679</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="J2">
-        <v>0.7328162024371679</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.19191228378637</v>
+        <v>0.239262</v>
       </c>
       <c r="N2">
-        <v>1.19191228378637</v>
+        <v>0.717786</v>
       </c>
       <c r="O2">
-        <v>0.4998304806020479</v>
+        <v>0.08715472402266844</v>
       </c>
       <c r="P2">
-        <v>0.4998304806020479</v>
+        <v>0.08715472402266845</v>
       </c>
       <c r="Q2">
-        <v>1.364730155897119</v>
+        <v>0.022379211662</v>
       </c>
       <c r="R2">
-        <v>1.364730155897119</v>
+        <v>0.201412904958</v>
       </c>
       <c r="S2">
-        <v>0.3662838746571372</v>
+        <v>0.004108127657136394</v>
       </c>
       <c r="T2">
-        <v>0.3662838746571372</v>
+        <v>0.004108127657136394</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -590,173 +596,669 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.14499210593061</v>
+        <v>0.09353433333333333</v>
       </c>
       <c r="H3">
-        <v>1.14499210593061</v>
+        <v>0.280603</v>
       </c>
       <c r="I3">
-        <v>0.7328162024371679</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="J3">
-        <v>0.7328162024371679</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.19272076690455</v>
+        <v>1.279928333333333</v>
       </c>
       <c r="N3">
-        <v>1.19272076690455</v>
+        <v>3.839785</v>
       </c>
       <c r="O3">
-        <v>0.5001695193979523</v>
+        <v>0.4662328353874023</v>
       </c>
       <c r="P3">
-        <v>0.5001695193979523</v>
+        <v>0.4662328353874023</v>
       </c>
       <c r="Q3">
-        <v>1.365655862685213</v>
+        <v>0.1197172433727778</v>
       </c>
       <c r="R3">
-        <v>1.365655862685213</v>
+        <v>1.077455190355</v>
       </c>
       <c r="S3">
-        <v>0.3665323277800308</v>
+        <v>0.02197636476046825</v>
       </c>
       <c r="T3">
-        <v>0.3665323277800308</v>
+        <v>0.02197636476046826</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.41746257523316</v>
+        <v>0.09353433333333333</v>
       </c>
       <c r="H4">
-        <v>0.41746257523316</v>
+        <v>0.280603</v>
       </c>
       <c r="I4">
-        <v>0.267183797562832</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="J4">
-        <v>0.267183797562832</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.19191228378637</v>
+        <v>0.008678333333333333</v>
       </c>
       <c r="N4">
-        <v>1.19191228378637</v>
+        <v>0.026035</v>
       </c>
       <c r="O4">
-        <v>0.4998304806020479</v>
+        <v>0.003161211335871935</v>
       </c>
       <c r="P4">
-        <v>0.4998304806020479</v>
+        <v>0.003161211335871935</v>
       </c>
       <c r="Q4">
-        <v>0.497578771441495</v>
+        <v>0.0008117221227777777</v>
       </c>
       <c r="R4">
-        <v>0.497578771441495</v>
+        <v>0.007305499104999999</v>
       </c>
       <c r="S4">
-        <v>0.1335466059449106</v>
+        <v>0.0001490069513107611</v>
       </c>
       <c r="T4">
-        <v>0.1335466059449106</v>
+        <v>0.0001490069513107612</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.09353433333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.280603</v>
+      </c>
+      <c r="I5">
+        <v>0.0471360296668244</v>
+      </c>
+      <c r="J5">
+        <v>0.0471360296668244</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.217387</v>
+      </c>
+      <c r="N5">
+        <v>3.652161</v>
+      </c>
+      <c r="O5">
+        <v>0.4434512292540573</v>
+      </c>
+      <c r="P5">
+        <v>0.4434512292540573</v>
+      </c>
+      <c r="Q5">
+        <v>0.1138674814536666</v>
+      </c>
+      <c r="R5">
+        <v>1.024807333083</v>
+      </c>
+      <c r="S5">
+        <v>0.020902530297909</v>
+      </c>
+      <c r="T5">
+        <v>0.020902530297909</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.367717666666667</v>
+      </c>
+      <c r="H6">
+        <v>4.103153</v>
+      </c>
+      <c r="I6">
+        <v>0.6892525793933763</v>
+      </c>
+      <c r="J6">
+        <v>0.6892525793933763</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.239262</v>
+      </c>
+      <c r="N6">
+        <v>0.717786</v>
+      </c>
+      <c r="O6">
+        <v>0.08715472402266844</v>
+      </c>
+      <c r="P6">
+        <v>0.08715472402266845</v>
+      </c>
+      <c r="Q6">
+        <v>0.327242864362</v>
+      </c>
+      <c r="R6">
+        <v>2.945185779258</v>
+      </c>
+      <c r="S6">
+        <v>0.06007161833894208</v>
+      </c>
+      <c r="T6">
+        <v>0.06007161833894208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.367717666666667</v>
+      </c>
+      <c r="H7">
+        <v>4.103153</v>
+      </c>
+      <c r="I7">
+        <v>0.6892525793933763</v>
+      </c>
+      <c r="J7">
+        <v>0.6892525793933763</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.279928333333333</v>
+      </c>
+      <c r="N7">
+        <v>3.839785</v>
+      </c>
+      <c r="O7">
+        <v>0.4662328353874023</v>
+      </c>
+      <c r="P7">
+        <v>0.4662328353874023</v>
+      </c>
+      <c r="Q7">
+        <v>1.750580593567222</v>
+      </c>
+      <c r="R7">
+        <v>15.755225342105</v>
+      </c>
+      <c r="S7">
+        <v>0.3213521843886544</v>
+      </c>
+      <c r="T7">
+        <v>0.3213521843886545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.367717666666667</v>
+      </c>
+      <c r="H8">
+        <v>4.103153</v>
+      </c>
+      <c r="I8">
+        <v>0.6892525793933763</v>
+      </c>
+      <c r="J8">
+        <v>0.6892525793933763</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.008678333333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.026035</v>
+      </c>
+      <c r="O8">
+        <v>0.003161211335871935</v>
+      </c>
+      <c r="P8">
+        <v>0.003161211335871935</v>
+      </c>
+      <c r="Q8">
+        <v>0.01186950981722222</v>
+      </c>
+      <c r="R8">
+        <v>0.106825588355</v>
+      </c>
+      <c r="S8">
+        <v>0.002178873067257312</v>
+      </c>
+      <c r="T8">
+        <v>0.002178873067257312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.367717666666667</v>
+      </c>
+      <c r="H9">
+        <v>4.103153</v>
+      </c>
+      <c r="I9">
+        <v>0.6892525793933763</v>
+      </c>
+      <c r="J9">
+        <v>0.6892525793933763</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.217387</v>
+      </c>
+      <c r="N9">
+        <v>3.652161</v>
+      </c>
+      <c r="O9">
+        <v>0.4434512292540573</v>
+      </c>
+      <c r="P9">
+        <v>0.4434512292540573</v>
+      </c>
+      <c r="Q9">
+        <v>1.665041707070333</v>
+      </c>
+      <c r="R9">
+        <v>14.985375363633</v>
+      </c>
+      <c r="S9">
+        <v>0.3056499035985224</v>
+      </c>
+      <c r="T9">
+        <v>0.3056499035985225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.523097</v>
+      </c>
+      <c r="H10">
+        <v>1.569291</v>
+      </c>
+      <c r="I10">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="J10">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.239262</v>
+      </c>
+      <c r="N10">
+        <v>0.717786</v>
+      </c>
+      <c r="O10">
+        <v>0.08715472402266844</v>
+      </c>
+      <c r="P10">
+        <v>0.08715472402266845</v>
+      </c>
+      <c r="Q10">
+        <v>0.125157234414</v>
+      </c>
+      <c r="R10">
+        <v>1.126415109726</v>
+      </c>
+      <c r="S10">
+        <v>0.02297497802658998</v>
+      </c>
+      <c r="T10">
+        <v>0.02297497802658998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.41746257523316</v>
-      </c>
-      <c r="H5">
-        <v>0.41746257523316</v>
-      </c>
-      <c r="I5">
-        <v>0.267183797562832</v>
-      </c>
-      <c r="J5">
-        <v>0.267183797562832</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.19272076690455</v>
-      </c>
-      <c r="N5">
-        <v>1.19272076690455</v>
-      </c>
-      <c r="O5">
-        <v>0.5001695193979523</v>
-      </c>
-      <c r="P5">
-        <v>0.5001695193979523</v>
-      </c>
-      <c r="Q5">
-        <v>0.497916282886043</v>
-      </c>
-      <c r="R5">
-        <v>0.497916282886043</v>
-      </c>
-      <c r="S5">
-        <v>0.1336371916179215</v>
-      </c>
-      <c r="T5">
-        <v>0.1336371916179215</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.523097</v>
+      </c>
+      <c r="H11">
+        <v>1.569291</v>
+      </c>
+      <c r="I11">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="J11">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.279928333333333</v>
+      </c>
+      <c r="N11">
+        <v>3.839785</v>
+      </c>
+      <c r="O11">
+        <v>0.4662328353874023</v>
+      </c>
+      <c r="P11">
+        <v>0.4662328353874023</v>
+      </c>
+      <c r="Q11">
+        <v>0.6695266713816667</v>
+      </c>
+      <c r="R11">
+        <v>6.025740042435</v>
+      </c>
+      <c r="S11">
+        <v>0.1229042862382796</v>
+      </c>
+      <c r="T11">
+        <v>0.1229042862382797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.523097</v>
+      </c>
+      <c r="H12">
+        <v>1.569291</v>
+      </c>
+      <c r="I12">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="J12">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.008678333333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.026035</v>
+      </c>
+      <c r="O12">
+        <v>0.003161211335871935</v>
+      </c>
+      <c r="P12">
+        <v>0.003161211335871935</v>
+      </c>
+      <c r="Q12">
+        <v>0.004539610131666667</v>
+      </c>
+      <c r="R12">
+        <v>0.040856491185</v>
+      </c>
+      <c r="S12">
+        <v>0.0008333313173038622</v>
+      </c>
+      <c r="T12">
+        <v>0.0008333313173038623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.523097</v>
+      </c>
+      <c r="H13">
+        <v>1.569291</v>
+      </c>
+      <c r="I13">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="J13">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.217387</v>
+      </c>
+      <c r="N13">
+        <v>3.652161</v>
+      </c>
+      <c r="O13">
+        <v>0.4434512292540573</v>
+      </c>
+      <c r="P13">
+        <v>0.4434512292540573</v>
+      </c>
+      <c r="Q13">
+        <v>0.636811487539</v>
+      </c>
+      <c r="R13">
+        <v>5.731303387850999</v>
+      </c>
+      <c r="S13">
+        <v>0.1168987953576259</v>
+      </c>
+      <c r="T13">
+        <v>0.1168987953576259</v>
       </c>
     </row>
   </sheetData>
